--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605191.7706933391</v>
+        <v>689257.6331314589</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6464931.541053761</v>
+        <v>8088944.869226775</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9334883.938457383</v>
+        <v>8551844.016552845</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>155.1558399708059</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
-        <v>411.8707348436268</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.28279919606398</v>
       </c>
       <c r="S3" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>107.040750496762</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="4">
@@ -829,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>65.63512030001876</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.15430933923925</v>
+        <v>38.11163636040603</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>88.09081815943067</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.79925355567413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>100.2173424486325</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -987,16 +989,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,28 +1059,28 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>146.8428862394539</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>38.11163636040592</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>2.757191690770305</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>138.1219706437577</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1215,22 +1217,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>51.8525460792971</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851092</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>48.00547107822024</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>61.36917500887012</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>315.8864050262689</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>94.81275980261576</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
         <v>89.59687541851115</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>146.8428862394539</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>87.93270968653144</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680976</v>
       </c>
       <c r="X14" t="n">
-        <v>352.9369085370664</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1771,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>14.57567088453384</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1783,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>36.80019004113397</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>85.26459287122454</v>
       </c>
       <c r="V17" t="n">
-        <v>4.443625914098315</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>49.89429007310783</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>20.95866062610972</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>302.4730282667005</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>58.9280504799215</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>49.53451124256578</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>121.4856996582643</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>62.45439117602507</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>150.9544634720137</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>92.49105144235453</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>168.1158122680963</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>229.796569204137</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>146.8428862394539</v>
       </c>
       <c r="T28" t="n">
-        <v>202.6034558564588</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>120.6088074159607</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>205.1127822067376</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.92444322444322</v>
+        <v>31.29725837092476</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,19 +3031,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>342.0137165855997</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3123,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>109.0294308692047</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>83.32727861849585</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>225.750889292396</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>243.2391485592445</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3360,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>70.53347461457284</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>39.0602505353224</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>44.28190385754277</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,19 +3556,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>25.73722946637147</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>248.5273189822009</v>
+        <v>160.8915086215179</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,13 +3748,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>115.6231722028921</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>54.51165059784277</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,19 +3982,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>259.8078719209001</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>88.58584547962764</v>
+        <v>88.58584547962775</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1781.859986840531</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="C2" t="n">
-        <v>1412.897469900119</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="D2" t="n">
-        <v>1256.174399222538</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="E2" t="n">
-        <v>870.3861466242934</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="F2" t="n">
-        <v>459.4002418346858</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="G2" t="n">
-        <v>43.36919653809306</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="H2" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>669.5878927711869</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Y2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652798</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>217.8222258192201</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="C3" t="n">
-        <v>43.36919653809306</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="D3" t="n">
-        <v>43.36919653809306</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E3" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>89.55356510562316</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>504.1959674104395</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546602</v>
       </c>
       <c r="O3" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>1672.753048689047</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>1766.227047333487</v>
+        <v>704.3621474571344</v>
       </c>
       <c r="S3" t="n">
-        <v>1627.262386835205</v>
+        <v>553.0790720117307</v>
       </c>
       <c r="T3" t="n">
-        <v>1519.140416636455</v>
+        <v>553.0790720117307</v>
       </c>
       <c r="U3" t="n">
-        <v>1291.038826769719</v>
+        <v>553.0790720117307</v>
       </c>
       <c r="V3" t="n">
-        <v>1055.886718537977</v>
+        <v>553.0790720117307</v>
       </c>
       <c r="W3" t="n">
-        <v>801.6493618097749</v>
+        <v>553.0790720117307</v>
       </c>
       <c r="X3" t="n">
-        <v>593.797861604242</v>
+        <v>363.6592869952459</v>
       </c>
       <c r="Y3" t="n">
-        <v>386.0375628392881</v>
+        <v>174.2395019787611</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="C4" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="D4" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="E4" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="F4" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="G4" t="n">
-        <v>322.003829010384</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="H4" t="n">
-        <v>171.9636155141767</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="I4" t="n">
-        <v>61.70688273934482</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="J4" t="n">
-        <v>43.36919653809306</v>
+        <v>29.24882464404146</v>
       </c>
       <c r="K4" t="n">
-        <v>92.71685897981521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170722</v>
       </c>
       <c r="N4" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>497.4664265514521</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X4" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y4" t="n">
-        <v>388.3019303235343</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>103.9826713767709</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794324</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794324</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>672.2420264262252</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>575.7081687894251</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>416.4707137839696</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>269.9361558108545</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>132.3969746333037</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>676.9378076264277</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181849</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C7" t="n">
-        <v>920.8870058181849</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>29.24882464404147</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1032.061124352532</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="C8" t="n">
-        <v>663.0986074121199</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="D8" t="n">
-        <v>663.0986074121199</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="E8" t="n">
-        <v>663.0986074121199</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>1826.151173794699</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>888.7124668435233</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392465</v>
+        <v>515.2467085824435</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416653</v>
+        <v>125.1073766066318</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811084</v>
+        <v>270.1985349902272</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999814</v>
+        <v>95.74550570910023</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387301</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332746</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601596</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927777</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1571.516725807462</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>1343.415135940726</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1108.263027708984</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>854.025670980782</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>646.1741707752492</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>438.4138720102953</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>520.289347040599</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>520.289347040599</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>520.289347040599</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>520.289347040599</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>471.7989722141139</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>303.6661428091322</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T10" t="n">
-        <v>417.6040489720652</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U10" t="n">
-        <v>128.5011820977088</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V10" t="n">
-        <v>66.51211643218343</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W10" t="n">
-        <v>66.51211643218343</v>
+        <v>520.289347040599</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218343</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218343</v>
+        <v>520.289347040599</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2752.998168088795</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2400.229512818681</v>
       </c>
       <c r="X11" t="n">
-        <v>1976.204921733553</v>
+        <v>2026.763754557601</v>
       </c>
       <c r="Y11" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218343</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218343</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>832.0660869429007</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>610.2994715124267</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U13" t="n">
-        <v>321.1966046380703</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V13" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W13" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X13" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1976.204921733553</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5309,19 +5311,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2719.306689612893</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X14" t="n">
-        <v>2362.804761797675</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y14" t="n">
-        <v>2362.804761797675</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031485</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>417.6040489720652</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="C16" t="n">
-        <v>417.6040489720652</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="D16" t="n">
-        <v>417.6040489720652</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="E16" t="n">
-        <v>417.6040489720652</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>417.6040489720652</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>249.9012123467842</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>103.684025564642</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
@@ -5464,22 +5466,22 @@
         <v>639.3706644025392</v>
       </c>
       <c r="T16" t="n">
-        <v>417.6040489720652</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U16" t="n">
-        <v>417.6040489720652</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V16" t="n">
-        <v>417.6040489720652</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="W16" t="n">
-        <v>417.6040489720652</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="X16" t="n">
-        <v>417.6040489720652</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="Y16" t="n">
-        <v>417.6040489720652</v>
+        <v>639.3706644025392</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1601.11348746897</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C17" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
         <v>1232.150970528558</v>
@@ -5513,10 +5515,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3033.502222608318</v>
       </c>
       <c r="V17" t="n">
-        <v>2751.318417769983</v>
+        <v>2702.439335264748</v>
       </c>
       <c r="W17" t="n">
-        <v>2751.318417769983</v>
+        <v>2349.670679994633</v>
       </c>
       <c r="X17" t="n">
-        <v>2377.852659508903</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y17" t="n">
-        <v>1987.713327533092</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927785</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064599</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>410.0175235133551</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>410.0175235133551</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>410.0175235133551</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>410.0175235133551</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>263.1275760154447</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>263.1275760154447</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>116.9103892333025</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O19" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>699.1203903877115</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U19" t="n">
-        <v>410.0175235133551</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V19" t="n">
-        <v>410.0175235133551</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W19" t="n">
-        <v>410.0175235133551</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X19" t="n">
-        <v>410.0175235133551</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y19" t="n">
-        <v>410.0175235133551</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2065.110222835253</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C20" t="n">
-        <v>1696.147705894841</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D20" t="n">
-        <v>1337.882007288091</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E20" t="n">
-        <v>952.0937546898465</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F20" t="n">
-        <v>541.107849900239</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G20" t="n">
-        <v>126.0353997452355</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>3215.315153136266</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W20" t="n">
-        <v>3215.315153136266</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X20" t="n">
-        <v>2841.849394875187</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y20" t="n">
-        <v>2451.710062899375</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="21">
@@ -5820,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>410.6772566376943</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C22" t="n">
-        <v>410.6772566376943</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D22" t="n">
-        <v>410.6772566376943</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E22" t="n">
-        <v>262.7641630553012</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F22" t="n">
-        <v>262.7641630553012</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143257</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>920.887005818185</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="U22" t="n">
-        <v>920.887005818185</v>
+        <v>2814.73633930434</v>
       </c>
       <c r="V22" t="n">
-        <v>920.887005818185</v>
+        <v>2692.023511366699</v>
       </c>
       <c r="W22" t="n">
-        <v>631.4698357812244</v>
+        <v>2692.023511366699</v>
       </c>
       <c r="X22" t="n">
-        <v>631.4698357812244</v>
+        <v>2692.023511366699</v>
       </c>
       <c r="Y22" t="n">
-        <v>410.6772566376943</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1295.236214140705</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C23" t="n">
-        <v>1295.236214140705</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D23" t="n">
-        <v>1295.236214140705</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180638</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X23" t="n">
-        <v>2071.975386180638</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y23" t="n">
-        <v>1681.836054204827</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="24">
@@ -6057,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.5121164321834</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="C25" t="n">
-        <v>66.5121164321834</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="D25" t="n">
-        <v>66.5121164321834</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="E25" t="n">
-        <v>66.5121164321834</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R25" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S25" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T25" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U25" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V25" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W25" t="n">
-        <v>439.7839516080506</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X25" t="n">
-        <v>439.7839516080506</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.9913724645205</v>
+        <v>403.4802848832071</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G26" t="n">
         <v>66.5121164321834</v>
@@ -6227,13 +6229,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6254,22 +6256,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3155.791869823214</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V26" t="n">
-        <v>3155.791869823214</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W26" t="n">
-        <v>3155.791869823214</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X26" t="n">
-        <v>2782.326111562134</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y26" t="n">
-        <v>2392.186779586323</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="27">
@@ -6309,7 +6311,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>235.4482993600903</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I28" t="n">
         <v>66.5121164321834</v>
@@ -6409,25 +6411,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>729.2011216450112</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="T28" t="n">
-        <v>524.5511662344468</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="U28" t="n">
-        <v>235.4482993600903</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="V28" t="n">
-        <v>235.4482993600903</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="W28" t="n">
-        <v>235.4482993600903</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="X28" t="n">
-        <v>235.4482993600903</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="Y28" t="n">
-        <v>235.4482993600903</v>
+        <v>772.5608581015648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1712.341567565137</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1343.379050624726</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>985.1133520179753</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>599.325099419731</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>188.3391946301235</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
@@ -6470,7 +6472,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6485,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>3215.315153136265</v>
+        <v>3118.421193117517</v>
       </c>
       <c r="W29" t="n">
-        <v>2862.546497866151</v>
+        <v>2765.652537847403</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.080739605071</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y29" t="n">
-        <v>2098.941407629259</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>846.0716871064755</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080134</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.7614736385282</v>
+        <v>2600.170001698688</v>
       </c>
       <c r="C31" t="n">
-        <v>263.7614736385282</v>
+        <v>2600.170001698688</v>
       </c>
       <c r="D31" t="n">
-        <v>263.7614736385282</v>
+        <v>2600.170001698688</v>
       </c>
       <c r="E31" t="n">
-        <v>263.7614736385282</v>
+        <v>2600.170001698688</v>
       </c>
       <c r="F31" t="n">
-        <v>263.7614736385282</v>
+        <v>2600.170001698688</v>
       </c>
       <c r="G31" t="n">
-        <v>163.837793613838</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="H31" t="n">
-        <v>163.837793613838</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V31" t="n">
-        <v>666.202517612298</v>
+        <v>2781.818466528928</v>
       </c>
       <c r="W31" t="n">
-        <v>666.202517612298</v>
+        <v>2781.818466528928</v>
       </c>
       <c r="X31" t="n">
-        <v>666.202517612298</v>
+        <v>2781.818466528928</v>
       </c>
       <c r="Y31" t="n">
-        <v>445.4099384687679</v>
+        <v>2781.818466528928</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1238.038871968309</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C32" t="n">
-        <v>892.5704713767946</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D32" t="n">
-        <v>892.5704713767946</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810557</v>
@@ -6716,10 +6718,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6731,19 +6733,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2741.012457539437</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>2388.243802269323</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.778044008243</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y32" t="n">
-        <v>1624.638712032431</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6810,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6819,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.51211643218343</v>
+        <v>739.2385409879448</v>
       </c>
       <c r="C34" t="n">
-        <v>66.51211643218343</v>
+        <v>570.3023580600379</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51211643218343</v>
+        <v>420.1857186477022</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218343</v>
+        <v>420.1857186477022</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218343</v>
+        <v>420.1857186477022</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R34" t="n">
-        <v>836.718037516674</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S34" t="n">
-        <v>645.0321533435005</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T34" t="n">
-        <v>645.0321533435005</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U34" t="n">
-        <v>355.929286469144</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V34" t="n">
-        <v>355.929286469144</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W34" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X34" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038044</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097632</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D35" t="n">
-        <v>1095.404020490882</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E35" t="n">
-        <v>709.6157678926375</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F35" t="n">
-        <v>709.6157678926375</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
-        <v>294.5433177376339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339057</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077977</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102166</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>699.120390387711</v>
+        <v>2923.1647776354</v>
       </c>
       <c r="C37" t="n">
-        <v>699.120390387711</v>
+        <v>2754.228594707493</v>
       </c>
       <c r="D37" t="n">
-        <v>549.0037509753753</v>
+        <v>2754.228594707493</v>
       </c>
       <c r="E37" t="n">
-        <v>477.7578170212613</v>
+        <v>2754.228594707493</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>2754.228594707493</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>2714.773796186966</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L37" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T37" t="n">
-        <v>699.120390387711</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U37" t="n">
-        <v>699.120390387711</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V37" t="n">
-        <v>699.120390387711</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W37" t="n">
-        <v>699.120390387711</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X37" t="n">
-        <v>699.120390387711</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="Y37" t="n">
-        <v>699.120390387711</v>
+        <v>3104.81324246564</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1734.047335491681</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C38" t="n">
-        <v>1365.08481855127</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
@@ -7172,19 +7174,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7202,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2884.252265792695</v>
+        <v>2729.809727313141</v>
       </c>
       <c r="W38" t="n">
-        <v>2884.252265792695</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="X38" t="n">
-        <v>2510.786507531615</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="Y38" t="n">
-        <v>2120.647175555803</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="39">
@@ -7242,22 +7244,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I39" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2785.150955630593</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
-        <v>2785.150955630593</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>2785.150955630593</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>2785.150955630593</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>2785.150955630593</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>2617.448119005312</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U40" t="n">
-        <v>3074.568125667553</v>
+        <v>758.3703304429139</v>
       </c>
       <c r="V40" t="n">
-        <v>3074.568125667553</v>
+        <v>758.3703304429139</v>
       </c>
       <c r="W40" t="n">
-        <v>2785.150955630593</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="X40" t="n">
-        <v>2785.150955630593</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y40" t="n">
-        <v>2785.150955630593</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1619.798686923957</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C41" t="n">
-        <v>1250.836169983545</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D41" t="n">
-        <v>892.5704713767946</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G41" t="n">
         <v>66.51211643218342</v>
@@ -7409,22 +7411,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296686</v>
@@ -7439,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2513.328941997115</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>2396.53785896389</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>2006.398526988078</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7494,7 +7496,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>121.5743897633377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>121.5743897633377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>121.5743897633377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>121.5743897633377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>121.5743897633377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>121.5743897633377</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7597,22 +7599,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U43" t="n">
-        <v>631.7841389438285</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V43" t="n">
-        <v>631.7841389438285</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W43" t="n">
-        <v>342.3669689068678</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X43" t="n">
-        <v>342.3669689068678</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y43" t="n">
-        <v>121.5743897633377</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1381.278680221567</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C44" t="n">
-        <v>1012.316163281155</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D44" t="n">
-        <v>749.8839694216604</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E44" t="n">
-        <v>364.0957168234162</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F44" t="n">
-        <v>364.0957168234162</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2884.252265792695</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2531.48361052258</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X44" t="n">
-        <v>2158.017852261501</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y44" t="n">
-        <v>1767.878520285689</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
         <v>176.6457242372933</v>
@@ -7813,28 +7815,28 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U46" t="n">
         <v>831.406353818561</v>
@@ -7849,7 +7851,7 @@
         <v>287.3046955757135</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
   </sheetData>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>199.527201649877</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
-        <v>304.326804756183</v>
+        <v>151.7212889301277</v>
       </c>
       <c r="I2" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22623,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.5072338470353</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>36.29946757904885</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.66886087721431</v>
+        <v>27.15009643239921</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>85.72246781400175</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>18.15710861098441</v>
       </c>
     </row>
     <row r="4">
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>100.816380810913</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.95836326784812</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>221.3678187343026</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>37.38049896054406</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>362.4386851003795</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>47.22772311600625</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22881,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22911,25 +22913,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22945,25 +22947,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>1.772586778758495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.95836326784826</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>379.9766499727103</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,13 +23032,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>268.7540750979538</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23103,22 +23105,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>95.59251948534165</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23188,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>97.41557694471101</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,22 +23223,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>190.7684683149579</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>11.865853443866</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>274.9183408758533</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>1.772586778758495</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>101.8363156449105</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>181.1251564493154</v>
       </c>
       <c r="X14" t="n">
-        <v>16.79419214140268</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>131.8582917620353</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>59.55223036870412</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>165.7305790876774</v>
       </c>
       <c r="V17" t="n">
-        <v>323.3086325560366</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23899,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>46.45813033673026</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>198.5902886500595</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23972,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>52.2100133539825</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>235.679713907399</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -24026,10 +24028,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>116.4912970164624</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24178,16 +24180,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>130.6519436655637</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>319.4759788962367</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.87751670992361</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>73.53475681667369</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24494,16 +24496,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>35.80215787152386</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>21.19860275476498</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>42.92613909198803</v>
       </c>
       <c r="T28" t="n">
-        <v>16.94549341971043</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>290.3129182374928</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -24737,7 +24739,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>122.6394762633973</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>67.101365034585</v>
+        <v>134.7285498881035</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24892,7 +24894,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>23.25917518540786</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>56.99637738982356</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.604874051551477</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25163,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>68.8568750949245</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25205,7 +25207,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -25214,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>126.4919521192246</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.359690138258429e-12</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>75.90048803199633</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>126.9655577237058</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>310.4011377631402</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25442,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>302.0150290037634</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25603,7 +25605,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>37.68451922341194</v>
+        <v>125.3203295840949</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25634,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25679,10 +25681,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>254.1079284755769</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>90.24336431647802</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25837,13 +25839,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25868,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>94.87516969978282</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -25922,7 +25924,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>197.6259927259852</v>
+        <v>197.6259927259851</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>645633.2065222074</v>
+        <v>416599.1113786228</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>822602.443421874</v>
+        <v>416599.1113786225</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>822602.443421874</v>
+        <v>645633.2065222074</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822602.4434218741</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822602.4434218737</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822602.4434218742</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.443421874</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>166639.644551449</v>
+      </c>
+      <c r="C2" t="n">
+        <v>166639.6445514491</v>
+      </c>
+      <c r="D2" t="n">
         <v>258253.2826088827</v>
-      </c>
-      <c r="C2" t="n">
-        <v>329040.9773687491</v>
-      </c>
-      <c r="D2" t="n">
-        <v>329040.977368749</v>
       </c>
       <c r="E2" t="n">
         <v>329040.9773687492</v>
@@ -26326,7 +26328,7 @@
         <v>329040.9773687492</v>
       </c>
       <c r="G2" t="n">
-        <v>329040.9773687494</v>
+        <v>329040.9773687493</v>
       </c>
       <c r="H2" t="n">
         <v>329040.9773687493</v>
@@ -26335,22 +26337,22 @@
         <v>329040.9773687492</v>
       </c>
       <c r="J2" t="n">
+        <v>329040.9773687493</v>
+      </c>
+      <c r="K2" t="n">
         <v>329040.9773687492</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>329040.9773687491</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>329040.977368749</v>
+      </c>
+      <c r="N2" t="n">
         <v>329040.9773687493</v>
       </c>
-      <c r="M2" t="n">
-        <v>329040.9773687492</v>
-      </c>
-      <c r="N2" t="n">
-        <v>329040.9773687492</v>
-      </c>
       <c r="O2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687493</v>
       </c>
       <c r="P2" t="n">
         <v>329040.9773687493</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1004321.885230093</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>308422.1921421495</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>371558.524948766</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>276030.74576691</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>141841.1257376602</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>74453.08759127805</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>89743.37813127013</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>72091.35261608611</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>384.3219252469136</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="C4" t="n">
-        <v>584.6469890061232</v>
+        <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>584.6469890061232</v>
+        <v>384.3219252469135</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,40 +26469,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>56985.80041161358</v>
+      </c>
+      <c r="C5" t="n">
+        <v>56985.80041161357</v>
+      </c>
+      <c r="D5" t="n">
         <v>85199.08185587224</v>
       </c>
-      <c r="C5" t="n">
-        <v>107933.9405613933</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
-      </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-831652.0064023298</v>
+        <v>-481840.8584990823</v>
       </c>
       <c r="C6" t="n">
-        <v>-87899.80232379986</v>
+        <v>109516.0440217632</v>
       </c>
       <c r="D6" t="n">
-        <v>220522.3898183496</v>
+        <v>-198888.6461210024</v>
       </c>
       <c r="E6" t="n">
+        <v>-21880.75594856022</v>
+      </c>
+      <c r="F6" t="n">
         <v>254149.9898183497</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>254149.9898183498</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>254149.9898183498</v>
+      </c>
+      <c r="I6" t="n">
+        <v>254149.9898183498</v>
+      </c>
+      <c r="J6" t="n">
+        <v>205085.0450898053</v>
+      </c>
+      <c r="K6" t="n">
+        <v>254149.9898183498</v>
+      </c>
+      <c r="L6" t="n">
+        <v>164406.6116870796</v>
+      </c>
+      <c r="M6" t="n">
+        <v>182058.6372022635</v>
+      </c>
+      <c r="N6" t="n">
         <v>254149.9898183499</v>
-      </c>
-      <c r="H6" t="n">
-        <v>254149.9898183501</v>
-      </c>
-      <c r="I6" t="n">
-        <v>254149.9898183497</v>
-      </c>
-      <c r="J6" t="n">
-        <v>112308.8640806896</v>
-      </c>
-      <c r="K6" t="n">
-        <v>179696.9022270716</v>
-      </c>
-      <c r="L6" t="n">
-        <v>254149.9898183498</v>
-      </c>
-      <c r="M6" t="n">
-        <v>254149.9898183497</v>
-      </c>
-      <c r="N6" t="n">
-        <v>254149.9898183498</v>
       </c>
       <c r="O6" t="n">
         <v>254149.9898183497</v>
       </c>
       <c r="P6" t="n">
-        <v>254149.9898183499</v>
+        <v>254149.9898183498</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.52558716632</v>
+      </c>
+      <c r="C4" t="n">
+        <v>187.5255871663199</v>
+      </c>
+      <c r="D4" t="n">
         <v>542.1149567261632</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="E4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
@@ -26805,22 +26807,22 @@
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
@@ -26829,7 +26831,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>236.0660360556142</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.2407236247794</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>236.0660360556143</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,17 +27011,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>354.5893695598434</v>
+      </c>
+      <c r="E4" t="n">
         <v>289.2864986761293</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>289.2864986761293</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761292</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>354.5893695598434</v>
+      </c>
+      <c r="M4" t="n">
         <v>289.2864986761293</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>465.2723121730378</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>7.401510384057843</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31759,7 +31761,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
         <v>557.281137600381</v>
@@ -32014,7 +32016,7 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.994981974642</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
         <v>473.099994678169</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781685</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32561,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32804,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33029,13 +33031,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34144,7 +34146,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
         <v>629.9949819746414</v>
@@ -34214,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34372,7 +34374,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623188</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -34445,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.2410322142395</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>294.302268944006</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>216.6751672332329</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>93.99375335563528</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
@@ -35662,7 +35664,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.794304803719</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36209,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36452,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36677,13 +36679,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K34" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M34" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O34" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L37" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O37" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O40" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37862,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38020,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923316</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>643980.4963358854</v>
+        <v>682210.3688256091</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6110993.067254422</v>
+        <v>8088944.869226759</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9511853.175357049</v>
+        <v>8551844.016552845</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>88.09081815943087</v>
       </c>
       <c r="E2" t="n">
-        <v>365.6425672559569</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>15.40229248514491</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414548</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="4">
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20.95866062610969</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>236.7410560406716</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>6.396723986041431</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>36.78756943016226</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.82926262591545</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>274.4291087681277</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>267.8337153657958</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1220,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>46.15272781268408</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189229</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>40.49484315883285</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>68.02930569165376</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>286.9936949083706</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>351.61301748992</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>148.4348925031071</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>353.9182127861541</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>236.7945896128281</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189239</v>
       </c>
       <c r="U15" t="n">
         <v>225.7871683969286</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>115.8425271943775</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>93.35882079148007</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>36.8019945406872</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>147.6950473502991</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>148.4344942516665</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>195.968473889135</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674901981</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>210.0946544764315</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>26.48323333968218</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>119.8148517074263</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>324.3985984863138</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.234929664971</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>93.35882079147999</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>81.77200357366344</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>17.18363018799969</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>120.0680993509743</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>27.29942197378385</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>58.94788863247393</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>283.2268612046877</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>33.21555324159405</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.94848555066419</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,7 +2967,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>239.3348485454004</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>40.9268616470055</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>230.2267521569527</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>131.5522128412692</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>181.9878824748403</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>213.0175435007626</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>96.51881667305221</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>85.67453763416928</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>93.35882079148007</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>120.608807415962</v>
+        <v>188.219639431212</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>84.71024171009498</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>80.77366170817064</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>126.5388824951709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>36.34690181272143</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>28.03004253565356</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>52.20526847825049</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.68942351146532</v>
+        <v>345.3374211735818</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>281.2337262627161</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.7843744902853</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1548.76669086687</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="C2" t="n">
-        <v>1548.76669086687</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.50099226012</v>
+        <v>583.26140202276</v>
       </c>
       <c r="E2" t="n">
-        <v>821.1650657389509</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906803</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="Y2" t="n">
-        <v>1935.366530930992</v>
+        <v>672.2420264262255</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>598.8192732198761</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>598.8192732198761</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>409.3994882033913</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>30.55991817042167</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438286</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>377.0996507379417</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>87.6824807009811</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>66.51211643218343</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218343</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1418.660964416652</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="C5" t="n">
-        <v>1049.69844747624</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="D5" t="n">
-        <v>691.4327488694898</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="E5" t="n">
-        <v>305.6444962712456</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="F5" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>21.03371160678498</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>80.81213159058947</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>583.26140202276</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392464</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="Y5" t="n">
-        <v>1418.660964416652</v>
+        <v>204.4218319897904</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>336.2349471645394</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>336.2349471645394</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>336.2349471645394</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>336.2349471645394</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>336.2349471645394</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>336.2349471645394</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>336.2349471645394</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>336.2349471645394</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.6936570343842</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W7" t="n">
-        <v>831.0565485757129</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X7" t="n">
-        <v>831.0565485757129</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.0565485757129</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495404</v>
+        <v>924.1416323895796</v>
       </c>
       <c r="C8" t="n">
-        <v>758.7856865549927</v>
+        <v>924.1416323895796</v>
       </c>
       <c r="D8" t="n">
-        <v>758.7856865549927</v>
+        <v>924.1416323895796</v>
       </c>
       <c r="E8" t="n">
-        <v>758.7856865549927</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="F8" t="n">
-        <v>758.7856865549927</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G8" t="n">
-        <v>343.7132363999892</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>122.3223344947426</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>1958.285829056568</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>1687.746722626471</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>1314.280964365391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>924.1416323895796</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>733.4522330887057</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>558.9992038075787</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>410.0647941463275</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>363.4458771638183</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>216.9113191907033</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1571.516725807462</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>1571.516725807462</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1571.516725807462</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1317.279369079261</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1109.427868873728</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>901.6675701087738</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>449.8213709509847</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="C10" t="n">
-        <v>449.8213709509847</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="D10" t="n">
-        <v>449.8213709509847</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="E10" t="n">
-        <v>449.8213709509847</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>302.9314234530743</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>135.2285868277933</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="W10" t="n">
-        <v>631.4698357812244</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="X10" t="n">
-        <v>631.4698357812244</v>
+        <v>231.1630260146225</v>
       </c>
       <c r="Y10" t="n">
-        <v>631.4698357812244</v>
+        <v>231.1630260146225</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1832.276849100055</v>
+        <v>2249.271807195287</v>
       </c>
       <c r="C11" t="n">
-        <v>1463.314332159643</v>
+        <v>1880.309290254875</v>
       </c>
       <c r="D11" t="n">
-        <v>1105.048633552893</v>
+        <v>1522.043591648125</v>
       </c>
       <c r="E11" t="n">
-        <v>719.2603809546486</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>719.2603809546486</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V11" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W11" t="n">
-        <v>2609.016021139988</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X11" t="n">
-        <v>2609.016021139988</v>
+        <v>2635.871647259409</v>
       </c>
       <c r="Y11" t="n">
-        <v>2218.876689164177</v>
+        <v>2635.871647259409</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218343</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218343</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218343</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218343</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="G13" t="n">
         <v>66.51211643218343</v>
@@ -5229,22 +5229,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T13" t="n">
-        <v>699.120390387711</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U13" t="n">
-        <v>549.1861555360877</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V13" t="n">
-        <v>294.5016673302008</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W13" t="n">
-        <v>294.5016673302008</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X13" t="n">
-        <v>66.51211643218343</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.51211643218343</v>
+        <v>87.6824807009811</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2291.674678112796</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C14" t="n">
-        <v>1922.712161172384</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D14" t="n">
-        <v>1564.446462565634</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E14" t="n">
-        <v>1178.658209967389</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G14" t="n">
         <v>406.0926155839475</v>
@@ -5278,22 +5278,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>2678.274518176918</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>2678.274518176918</v>
+        <v>2295.848255769287</v>
       </c>
       <c r="X14" t="n">
-        <v>2678.274518176918</v>
+        <v>2295.848255769287</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.274518176918</v>
+        <v>1905.708923793476</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
         <v>1685.951113992584</v>
@@ -5387,16 +5387,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.887005818185</v>
+        <v>478.3278112441814</v>
       </c>
       <c r="C16" t="n">
-        <v>751.9508228902781</v>
+        <v>478.3278112441814</v>
       </c>
       <c r="D16" t="n">
-        <v>601.8341834779424</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E16" t="n">
-        <v>453.9210898955492</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>307.0311423976389</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218343</v>
@@ -5436,52 +5436,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T16" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U16" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V16" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="W16" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="X16" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.887005818185</v>
+        <v>478.3278112441814</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1626.299101484276</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C17" t="n">
-        <v>1257.336584543865</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>899.0708859371141</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>513.2826333388698</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>513.2826333388698</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V17" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W17" t="n">
-        <v>2403.03827352421</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X17" t="n">
-        <v>2403.03827352421</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y17" t="n">
-        <v>2012.898941548398</v>
+        <v>2382.341170533245</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>511.2489900899278</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="C19" t="n">
-        <v>361.3151575124869</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3151575124869</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
@@ -5682,43 +5682,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W19" t="n">
-        <v>920.8870058181849</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X19" t="n">
-        <v>692.8974549201675</v>
+        <v>433.5218823578558</v>
       </c>
       <c r="Y19" t="n">
-        <v>692.8974549201675</v>
+        <v>212.7293032143257</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2217.803762225667</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>1848.841245285255</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>1490.575546678505</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.787294080261</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>693.8013892906531</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>278.7289391356496</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X20" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y20" t="n">
-        <v>2604.403602289789</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="21">
@@ -5822,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>510.7590362090546</v>
+        <v>190.5885343609918</v>
       </c>
       <c r="C22" t="n">
-        <v>510.7590362090546</v>
+        <v>190.5885343609918</v>
       </c>
       <c r="D22" t="n">
-        <v>360.6423967967188</v>
+        <v>190.5885343609918</v>
       </c>
       <c r="E22" t="n">
-        <v>212.7293032143257</v>
+        <v>190.5885343609918</v>
       </c>
       <c r="F22" t="n">
-        <v>212.7293032143257</v>
+        <v>190.5885343609918</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143257</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S22" t="n">
-        <v>799.861903083411</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T22" t="n">
-        <v>799.861903083411</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U22" t="n">
-        <v>510.7590362090546</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V22" t="n">
-        <v>510.7590362090546</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="W22" t="n">
-        <v>510.7590362090546</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="X22" t="n">
-        <v>510.7590362090546</v>
+        <v>411.3811135045219</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.7590362090546</v>
+        <v>190.5885343609918</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1917.382287315189</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C23" t="n">
-        <v>1548.419770374778</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D23" t="n">
-        <v>1190.154071768027</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6013,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923658</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653544</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X23" t="n">
-        <v>2182.266054653544</v>
+        <v>2413.337105533058</v>
       </c>
       <c r="Y23" t="n">
-        <v>1917.382287315189</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C25" t="n">
-        <v>751.950822890278</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D25" t="n">
-        <v>601.8341834779422</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E25" t="n">
-        <v>453.9210898955491</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F25" t="n">
-        <v>307.0311423976387</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
@@ -6180,19 +6180,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V25" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W25" t="n">
-        <v>920.8870058181849</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X25" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1384.829779622645</v>
+        <v>1664.678443125551</v>
       </c>
       <c r="C26" t="n">
-        <v>1384.829779622645</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="D26" t="n">
-        <v>1026.564081015894</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>640.7758284176498</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>229.7899236280422</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X26" t="n">
-        <v>2161.568951662578</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y26" t="n">
-        <v>1771.429619686766</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>739.2385409879452</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="C28" t="n">
-        <v>570.3023580600383</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="D28" t="n">
-        <v>420.1857186477025</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E28" t="n">
-        <v>272.2726250653094</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F28" t="n">
-        <v>272.2726250653094</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
         <v>66.5121164321834</v>
@@ -6414,22 +6414,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181849</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="X28" t="n">
-        <v>920.8870058181849</v>
+        <v>409.7032203507503</v>
       </c>
       <c r="Y28" t="n">
-        <v>920.8870058181849</v>
+        <v>409.7032203507503</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2291.674678112794</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C29" t="n">
-        <v>1922.712161172383</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D29" t="n">
-        <v>1564.446462565632</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>1178.658209967388</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>767.6723051777806</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>352.599855022777</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
         <v>66.5121164321834</v>
@@ -6466,7 +6466,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6496,19 +6496,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2678.274518176916</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>2678.274518176916</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>2678.274518176916</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>844.171363847817</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C31" t="n">
-        <v>675.2351809199101</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
         <v>66.5121164321834</v>
@@ -6657,16 +6657,16 @@
         <v>920.8870058181849</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181849</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="X31" t="n">
-        <v>920.8870058181849</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y31" t="n">
-        <v>920.8870058181849</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1619.798686923957</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.836169983545</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D32" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W32" t="n">
-        <v>2424.744041450753</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X32" t="n">
-        <v>2051.278283189673</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y32" t="n">
-        <v>1661.138951213861</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.5121164321834</v>
+        <v>518.4459618444151</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>349.5097789165083</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>199.3931395041725</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>199.3931395041725</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>199.3931395041725</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>699.1203903877109</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U34" t="n">
-        <v>515.2942464737308</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V34" t="n">
-        <v>515.2942464737308</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W34" t="n">
-        <v>515.2942464737308</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X34" t="n">
-        <v>287.3046955757135</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.5121164321834</v>
+        <v>700.0944266746549</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1904.487375535338</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C35" t="n">
-        <v>1535.524858594926</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E35" t="n">
         <v>934.5673701373257</v>
@@ -6934,55 +6934,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3228.112067393966</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3022.134319778188</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410103</v>
+        <v>2768.603843052024</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.721789066532</v>
+        <v>2437.540955708454</v>
       </c>
       <c r="W35" t="n">
-        <v>2277.953133796418</v>
+        <v>2084.772300438339</v>
       </c>
       <c r="X35" t="n">
-        <v>1904.487375535338</v>
+        <v>1711.306542177259</v>
       </c>
       <c r="Y35" t="n">
-        <v>1904.487375535338</v>
+        <v>1321.167210201447</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>920.887005818185</v>
+        <v>472.1048757766374</v>
       </c>
       <c r="C37" t="n">
-        <v>751.9508228902781</v>
+        <v>303.1686928487305</v>
       </c>
       <c r="D37" t="n">
-        <v>601.8341834779424</v>
+        <v>153.0520534363948</v>
       </c>
       <c r="E37" t="n">
-        <v>453.9210898955492</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>307.0311423976389</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X37" t="n">
-        <v>920.887005818185</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.887005818185</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1712.341567565139</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C38" t="n">
-        <v>1343.379050624727</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D38" t="n">
-        <v>985.1133520179767</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E38" t="n">
-        <v>599.3250994197324</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F38" t="n">
-        <v>188.3391946301248</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052369</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2862.546497866152</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X38" t="n">
-        <v>2489.080739605072</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y38" t="n">
-        <v>2098.941407629261</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>657.6489837069648</v>
+        <v>471.1308394896937</v>
       </c>
       <c r="C40" t="n">
-        <v>657.6489837069648</v>
+        <v>302.1946565617868</v>
       </c>
       <c r="D40" t="n">
-        <v>507.5323442946291</v>
+        <v>152.0780171494511</v>
       </c>
       <c r="E40" t="n">
-        <v>359.619250712236</v>
+        <v>152.0780171494511</v>
       </c>
       <c r="F40" t="n">
-        <v>212.7293032143257</v>
+        <v>152.0780171494511</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218343</v>
@@ -7362,22 +7362,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T40" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U40" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V40" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W40" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="X40" t="n">
-        <v>839.2974485372046</v>
+        <v>471.1308394896937</v>
       </c>
       <c r="Y40" t="n">
-        <v>839.2974485372046</v>
+        <v>471.1308394896937</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2047.583838282732</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.62132134232</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E41" t="n">
         <v>934.5673701373257</v>
@@ -7408,22 +7408,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7432,31 +7432,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W41" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X41" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2434.183678346854</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>676.468527222536</v>
+        <v>263.7614736385283</v>
       </c>
       <c r="C43" t="n">
-        <v>507.5323442946291</v>
+        <v>94.82529071062137</v>
       </c>
       <c r="D43" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
@@ -7578,43 +7578,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>676.468527222536</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U43" t="n">
-        <v>676.468527222536</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V43" t="n">
-        <v>676.468527222536</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W43" t="n">
-        <v>676.468527222536</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="X43" t="n">
-        <v>676.468527222536</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.468527222536</v>
+        <v>445.409938468768</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1678.62132134232</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794323</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450752</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919558</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="Y44" t="n">
-        <v>1678.62132134232</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,10 +7742,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>528.3452334219998</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="C46" t="n">
-        <v>528.3452334219998</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D46" t="n">
-        <v>528.3452334219998</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E46" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V46" t="n">
-        <v>920.8870058181842</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W46" t="n">
-        <v>920.8870058181842</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="X46" t="n">
-        <v>920.8870058181842</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="Y46" t="n">
-        <v>709.9936982522395</v>
+        <v>382.1280466398575</v>
       </c>
     </row>
   </sheetData>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>266.5922234612521</v>
       </c>
       <c r="E2" t="n">
-        <v>16.28780281630486</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>151.1308911647224</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>18.15710861098441</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,31 +22746,31 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>204.7509947629275</v>
+        <v>173.4937091346027</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>170.1349897010399</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>321.3555344840935</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>110.6574961344765</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22880,13 +22880,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,22 +22916,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>7.884010625681327</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,34 +22941,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>127.0027175560218</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>93.20510176849682</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>20.17865561919274</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>81.40725335161721</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23108,7 +23108,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>111.4923526427169</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -23117,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23147,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23187,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>105.9391194877363</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>76.72570922266702</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>94.93667516389121</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>59.30870816353342</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>145.0671476329185</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23469,19 +23469,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>137.7769457025057</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>52.95783295555736</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>112.4463791045849</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.77294582383485</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>72.66698746754815</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>345.9318471227934</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>263.2266783031544</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>18.81232684696135</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>29.74118149990215</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>303.9530049144607</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>84.513109910889</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>139.542574919346</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>69.95417362401564</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>45.33250219215523</v>
       </c>
       <c r="Y23" t="n">
-        <v>124.0030089910826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>72.66698746754824</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24420,16 +24420,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.7509947629276</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>337.4994114326832</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>290.8536263024791</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>121.3160510444285</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>107.0779196265543</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>11.38090318263278</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>353.0223854144596</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.8834946312731</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24897,7 +24897,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>12.80279477842763</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>341.8069800164751</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>97.52550631318223</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>34.47359541775904</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,10 +25128,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>104.2239557307726</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>141.6654981199204</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>12.66894511512362</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>60.75942501239989</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>72.66698746754815</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>290.3129182374915</v>
+        <v>222.7020862222414</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>81.31556654893325</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25602,7 +25602,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>144.9359936808665</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>222.7020862222421</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>349.8910368433321</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>120.5854304825588</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25836,16 +25836,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>167.3436807979187</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>366.5485151445882</v>
+        <v>40.90051748247174</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26082,16 +26082,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>5.28927207387494</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.800278861809517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>822602.443421874</v>
+        <v>416599.1113786226</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>822602.4434218738</v>
+        <v>416599.1113786228</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>822602.4434218738</v>
+        <v>645633.2065222071</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822602.4434218737</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218741</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>822602.4434218737</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329040.9773687492</v>
+        <v>166639.644551449</v>
       </c>
       <c r="C2" t="n">
-        <v>329040.9773687491</v>
+        <v>166639.644551449</v>
       </c>
       <c r="D2" t="n">
-        <v>329040.9773687492</v>
+        <v>258253.2826088827</v>
       </c>
       <c r="E2" t="n">
         <v>329040.9773687492</v>
@@ -26328,13 +26328,13 @@
         <v>329040.9773687493</v>
       </c>
       <c r="G2" t="n">
+        <v>329040.9773687493</v>
+      </c>
+      <c r="H2" t="n">
         <v>329040.9773687492</v>
       </c>
-      <c r="H2" t="n">
-        <v>329040.9773687493</v>
-      </c>
       <c r="I2" t="n">
-        <v>329040.9773687493</v>
+        <v>329040.9773687492</v>
       </c>
       <c r="J2" t="n">
         <v>329040.9773687493</v>
@@ -26346,7 +26346,7 @@
         <v>329040.9773687493</v>
       </c>
       <c r="M2" t="n">
-        <v>329040.9773687493</v>
+        <v>329040.9773687492</v>
       </c>
       <c r="N2" t="n">
         <v>329040.9773687492</v>
@@ -26355,7 +26355,7 @@
         <v>329040.9773687493</v>
       </c>
       <c r="P2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687493</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>371558.5249487659</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>276030.7457669101</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>89743.37813127038</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>72091.35261608614</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>137.800118072334</v>
+      </c>
+      <c r="C4" t="n">
+        <v>137.800118072334</v>
+      </c>
+      <c r="D4" t="n">
+        <v>384.3219252469135</v>
+      </c>
+      <c r="E4" t="n">
         <v>584.6469890061231</v>
       </c>
-      <c r="C4" t="n">
-        <v>584.6469890061231</v>
-      </c>
-      <c r="D4" t="n">
-        <v>584.6469890061231</v>
-      </c>
-      <c r="E4" t="n">
-        <v>584.6469890061232</v>
-      </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="G4" t="n">
         <v>584.6469890061231</v>
@@ -26444,7 +26444,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="L4" t="n">
         <v>584.6469890061231</v>
@@ -26459,7 +26459,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26499,10 +26499,10 @@
         <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1112296.351287412</v>
+        <v>-483060.2647009858</v>
       </c>
       <c r="C6" t="n">
-        <v>216448.3944401801</v>
+        <v>108296.6378198597</v>
       </c>
       <c r="D6" t="n">
-        <v>216448.3944401802</v>
+        <v>-199649.9841326187</v>
       </c>
       <c r="E6" t="n">
-        <v>250075.9944401802</v>
+        <v>-22288.15548637737</v>
       </c>
       <c r="F6" t="n">
-        <v>250075.9944401802</v>
+        <v>253742.5902805327</v>
       </c>
       <c r="G6" t="n">
-        <v>250075.9944401802</v>
+        <v>253742.5902805331</v>
       </c>
       <c r="H6" t="n">
-        <v>250075.9944401802</v>
+        <v>253742.5902805327</v>
       </c>
       <c r="I6" t="n">
-        <v>250075.9944401802</v>
+        <v>253742.5902805327</v>
       </c>
       <c r="J6" t="n">
-        <v>32544.79204290275</v>
+        <v>204677.6455519883</v>
       </c>
       <c r="K6" t="n">
-        <v>250075.9944401802</v>
+        <v>253742.5902805329</v>
       </c>
       <c r="L6" t="n">
-        <v>250075.9944401802</v>
+        <v>163999.2121492625</v>
       </c>
       <c r="M6" t="n">
-        <v>250075.9944401802</v>
+        <v>181651.2376644467</v>
       </c>
       <c r="N6" t="n">
-        <v>250075.9944401802</v>
+        <v>253742.5902805327</v>
       </c>
       <c r="O6" t="n">
-        <v>250075.9944401802</v>
+        <v>253742.5902805329</v>
       </c>
       <c r="P6" t="n">
-        <v>250075.9944401805</v>
+        <v>253742.5902805329</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022929</v>
@@ -26804,13 +26804,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26819,19 +26819,19 @@
         <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.2407236247794</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>236.0660360556143</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>289.2864986761297</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598436</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761297</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31785,7 +31785,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
         <v>99.83230779806951</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33280,10 +33280,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M16" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127284</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
